--- a/src/analysis_examples/circadb/results_jtk/cosinor_10443463_cdkn1a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10443463_cdkn1a_.xlsx
@@ -591,14 +591,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.19455517353199786, 0.3331111504267253]</t>
+          <t>[0.19466586730365326, 0.3330004566550699]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.674393752767685e-08</v>
+        <v>9.430578451485871e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>9.674393752767685e-08</v>
+        <v>9.430578451485871e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.132105460753078</v>
@@ -619,14 +619,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.24429221302211765, 0.3200768505314945]</t>
+          <t>[0.2443102719782374, 0.32005879157537476]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>5.802025526691068e-13</v>
+        <v>5.748734821509061e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>5.802025526691068e-13</v>
+        <v>5.748734821509061e-13</v>
       </c>
       <c r="W2" t="n">
         <v>4.324324324324436</v>
